--- a/Document/关卡规划.xlsx
+++ b/Document/关卡规划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>关卡编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>学习斜面下落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次冰块出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果掉落模式出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +531,7 @@
     <col min="5" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,13 +560,19 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -567,20 +597,20 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
         <v>500</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1000</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,20 +635,20 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>2000</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>3000</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -643,20 +673,20 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3000</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>4000</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -681,20 +711,20 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>5000</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>8000</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -719,20 +749,20 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>40</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>10000</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>16000</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -757,20 +787,20 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>25</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>8000</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>12000</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -780,124 +810,220 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
